--- a/support/PO_Values.xlsx
+++ b/support/PO_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arun/Java_Programs/ExceltoXMLParser/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5533F47B-AEF9-FE44-9E25-65AF02CC20B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F664CD81-57B4-654F-B3E1-2F2A1025D0C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{7C0E7B08-97AA-1D4B-B28C-9580D9D600FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{7C0E7B08-97AA-1D4B-B28C-9580D9D600FA}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>OrderId</t>
   </si>
@@ -48,25 +48,22 @@
     <t>OrderQty</t>
   </si>
   <si>
-    <t>10/28/2018</t>
-  </si>
-  <si>
-    <t>10/29/2018 00:00</t>
-  </si>
-  <si>
-    <t>8930240020006</t>
-  </si>
-  <si>
-    <t>8930240020005</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>PESTPO68</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2918440020000</t>
+  </si>
+  <si>
+    <t>ZESTPO68</t>
+  </si>
+  <si>
+    <t>11/28/2018</t>
+  </si>
+  <si>
+    <t>11/28/2018 00:00</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,25 +457,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
